--- a/Zeus/data/TSP/Results/gr17.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/gr17.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1776.0</v>
+        <v>2239.0</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -85,7 +85,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1776.0</v>
+        <v>2239.0</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -108,7 +108,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -125,7 +125,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -159,7 +159,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -176,7 +176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -193,7 +193,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -210,7 +210,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -227,7 +227,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -244,7 +244,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -295,7 +295,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -312,7 +312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -329,7 +329,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -346,7 +346,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -363,7 +363,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
